--- a/Sexto Semestre ESCOM/Administración de proyectos/Plan de negocios/Estado flujo de efectivo para taller en clase.xlsx
+++ b/Sexto Semestre ESCOM/Administración de proyectos/Plan de negocios/Estado flujo de efectivo para taller en clase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BrandMV\Documents\ESCOM\Sexto Semestre ESCOM\Administración de proyectos\Plan de negocios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371CB770-573A-4541-8D63-859B45967576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5571AA6E-6B6F-4A4A-B569-23B50167C6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CCC6144-DA6A-4FA4-8A57-EBABB4840F27}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6CCC6144-DA6A-4FA4-8A57-EBABB4840F27}"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo de efectivo" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Concepto</t>
   </si>
@@ -86,16 +86,23 @@
     <t>Autorizó
 Brandon David Meza Vargas
 Director General</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*PRESUPUESTO DE INVERSION INICIAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">393, 175.52 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +117,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -132,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -274,11 +287,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -286,7 +314,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -349,6 +376,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,7 +406,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
+      <xdr:colOff>321733</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>147834</xdr:rowOff>
     </xdr:to>
@@ -714,219 +743,292 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD90FD1A-1533-421A-AAAA-3ACE4EF803AD}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="44" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="19">
         <v>2022</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="19">
         <v>2023</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="19">
         <v>2024</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="19">
         <v>2025</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="19">
         <v>2026</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="20">
         <v>2027</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="B4" s="31">
+        <v>-91335</v>
+      </c>
+      <c r="C4" s="31">
+        <v>-422182</v>
+      </c>
+      <c r="D4" s="31">
+        <v>-47307</v>
+      </c>
+      <c r="E4" s="31">
+        <v>360373</v>
+      </c>
+      <c r="F4" s="31">
+        <v>1221162</v>
+      </c>
+      <c r="G4" s="31">
+        <v>3102580</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="13">
+        <v>22050</v>
+      </c>
+      <c r="C5" s="13">
+        <v>37800</v>
+      </c>
+      <c r="D5" s="13">
+        <v>37800</v>
+      </c>
+      <c r="E5" s="13">
+        <v>29025</v>
+      </c>
+      <c r="F5" s="13">
+        <v>2700</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="12">
+        <v>0</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12">
+        <v>2</v>
+      </c>
+      <c r="E6" s="12">
+        <v>3</v>
+      </c>
+      <c r="F6" s="12">
+        <v>4</v>
+      </c>
+      <c r="G6" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="B8" s="12">
+        <v>0</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12">
+        <v>2</v>
+      </c>
+      <c r="E8" s="12">
+        <v>3</v>
+      </c>
+      <c r="F8" s="12">
         <v>4</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="G8" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="B10" s="12">
+        <v>0</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12">
+        <v>2</v>
+      </c>
+      <c r="E10" s="12">
+        <v>3</v>
+      </c>
+      <c r="F10" s="12">
+        <v>4</v>
+      </c>
+      <c r="G10" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="B11" s="13">
+        <v>343175</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="B12" s="16">
+        <f>B11*0.1</f>
+        <v>34317.5</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="23">
         <f>B4+B5+B6-B8-B10+B11-B12</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="24">
+        <v>239572.5</v>
+      </c>
+      <c r="C13" s="23">
         <f t="shared" ref="C13:G13" si="0">C4+C5+C6-C8-C10+C11-C12</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="24">
+        <v>-384383</v>
+      </c>
+      <c r="D13" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="24">
+        <v>-9509</v>
+      </c>
+      <c r="E13" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="24">
+        <v>389395</v>
+      </c>
+      <c r="F13" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="24">
+        <v>1223858</v>
+      </c>
+      <c r="G13" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-    </row>
-    <row r="18" spans="2:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="30" t="s">
+        <v>3105275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+    </row>
+    <row r="18" spans="2:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="30" t="s">
+      <c r="C18" s="30"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="31"/>
+      <c r="F18" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -952,6 +1054,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4ecd955e-de54-4019-bb4b-f05ad869cd1d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="190c8990-5a96-4215-abfd-93010a72b119">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100BB9020C93E3AF24D9B15CFDD3D795D68" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="89500325cf0915c54ef469f40936efdb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="190c8990-5a96-4215-abfd-93010a72b119" xmlns:ns3="4ecd955e-de54-4019-bb4b-f05ad869cd1d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7d355c86073a7160a34d870c5b91e419" ns2:_="" ns3:_="">
     <xsd:import namespace="190c8990-5a96-4215-abfd-93010a72b119"/>
@@ -1168,17 +1281,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4ecd955e-de54-4019-bb4b-f05ad869cd1d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="190c8990-5a96-4215-abfd-93010a72b119">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D5EC628-A65D-4DC4-AB37-004E7A4598B4}">
   <ds:schemaRefs>
@@ -1188,6 +1290,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E9B0616-9726-4F94-A641-757ACE6C9CC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4ecd955e-de54-4019-bb4b-f05ad869cd1d"/>
+    <ds:schemaRef ds:uri="190c8990-5a96-4215-abfd-93010a72b119"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58B7D8E6-9837-46ED-9602-0D2CB4221FB6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1204,15 +1317,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E9B0616-9726-4F94-A641-757ACE6C9CC3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4ecd955e-de54-4019-bb4b-f05ad869cd1d"/>
-    <ds:schemaRef ds:uri="190c8990-5a96-4215-abfd-93010a72b119"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Sexto Semestre ESCOM/Administración de proyectos/Plan de negocios/Estado flujo de efectivo para taller en clase.xlsx
+++ b/Sexto Semestre ESCOM/Administración de proyectos/Plan de negocios/Estado flujo de efectivo para taller en clase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BrandMV\Documents\ESCOM\Sexto Semestre ESCOM\Administración de proyectos\Plan de negocios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC\ESCOM\ESCOM\Sexto Semestre ESCOM\Administración de proyectos\Plan de negocios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5571AA6E-6B6F-4A4A-B569-23B50167C6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E325AE64-A9BB-4F57-BDF1-3460A9A640E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6CCC6144-DA6A-4FA4-8A57-EBABB4840F27}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CCC6144-DA6A-4FA4-8A57-EBABB4840F27}"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo de efectivo" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Concepto</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t xml:space="preserve">393, 175.52 </t>
+  </si>
+  <si>
+    <t>Flujo acumulado</t>
   </si>
 </sst>
 </file>
@@ -102,7 +105,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +126,14 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -306,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -355,6 +366,8 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -376,8 +389,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,15 +413,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>182563</xdr:rowOff>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>321733</xdr:colOff>
+      <xdr:colOff>448733</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>147834</xdr:rowOff>
+      <xdr:rowOff>155771</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -431,8 +444,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5738813" y="3262313"/>
-          <a:ext cx="1057275" cy="536771"/>
+          <a:off x="5945188" y="3270250"/>
+          <a:ext cx="1020233" cy="536771"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>382587</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>482070</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>141484</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1816A11-A857-4BC3-9523-992E0616BA98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3319462" y="3255963"/>
+          <a:ext cx="1020233" cy="536771"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -741,34 +798,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD90FD1A-1533-421A-AAAA-3ACE4EF803AD}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -791,7 +848,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -802,30 +859,30 @@
       <c r="F3" s="11"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="24">
         <v>-91335</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="24">
         <v>-422182</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="24">
         <v>-47307</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="24">
         <v>360373</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="24">
         <v>1221162</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="24">
         <v>3102580</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -848,7 +905,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -856,22 +913,22 @@
         <v>0</v>
       </c>
       <c r="C6" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6" s="12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G6" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -882,7 +939,7 @@
       <c r="F7" s="14"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -890,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="C8" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F8" s="12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G8" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>4</v>
       </c>
@@ -916,7 +973,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>10</v>
       </c>
@@ -924,22 +981,22 @@
         <v>0</v>
       </c>
       <c r="C10" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F10" s="12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G10" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
@@ -952,7 +1009,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>5</v>
       </c>
@@ -966,7 +1023,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>12</v>
       </c>
@@ -976,59 +1033,89 @@
       </c>
       <c r="C13" s="23">
         <f t="shared" ref="C13:G13" si="0">C4+C5+C6-C8-C10+C11-C12</f>
-        <v>-384383</v>
+        <v>-384382</v>
       </c>
       <c r="D13" s="23">
         <f t="shared" si="0"/>
-        <v>-9509</v>
+        <v>-9507</v>
       </c>
       <c r="E13" s="23">
         <f t="shared" si="0"/>
-        <v>389395</v>
+        <v>389398</v>
       </c>
       <c r="F13" s="23">
         <f t="shared" si="0"/>
-        <v>1223858</v>
+        <v>1223862</v>
       </c>
       <c r="G13" s="23">
         <f t="shared" si="0"/>
-        <v>3105275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3105280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="34">
+        <f>B13</f>
+        <v>239572.5</v>
+      </c>
+      <c r="C14" s="34">
+        <f>B13+C13</f>
+        <v>-144809.5</v>
+      </c>
+      <c r="D14" s="34">
+        <f>C14+D13</f>
+        <v>-154316.5</v>
+      </c>
+      <c r="E14" s="34">
+        <f>D14+E13</f>
+        <v>235081.5</v>
+      </c>
+      <c r="F14" s="34">
+        <f>E14+F13</f>
+        <v>1458943.5</v>
+      </c>
+      <c r="G14" s="34">
+        <f>F14+G13</f>
+        <v>4564223.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="32" t="s">
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-    </row>
-    <row r="18" spans="2:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="29" t="s">
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+    </row>
+    <row r="18" spans="2:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="30"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="30"/>
+      <c r="F18" s="32"/>
+      <c r="H18" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1054,17 +1141,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4ecd955e-de54-4019-bb4b-f05ad869cd1d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="190c8990-5a96-4215-abfd-93010a72b119">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100BB9020C93E3AF24D9B15CFDD3D795D68" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="89500325cf0915c54ef469f40936efdb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="190c8990-5a96-4215-abfd-93010a72b119" xmlns:ns3="4ecd955e-de54-4019-bb4b-f05ad869cd1d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7d355c86073a7160a34d870c5b91e419" ns2:_="" ns3:_="">
     <xsd:import namespace="190c8990-5a96-4215-abfd-93010a72b119"/>
@@ -1281,6 +1357,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4ecd955e-de54-4019-bb4b-f05ad869cd1d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="190c8990-5a96-4215-abfd-93010a72b119">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D5EC628-A65D-4DC4-AB37-004E7A4598B4}">
   <ds:schemaRefs>
@@ -1290,17 +1377,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E9B0616-9726-4F94-A641-757ACE6C9CC3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4ecd955e-de54-4019-bb4b-f05ad869cd1d"/>
-    <ds:schemaRef ds:uri="190c8990-5a96-4215-abfd-93010a72b119"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58B7D8E6-9837-46ED-9602-0D2CB4221FB6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1317,4 +1393,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E9B0616-9726-4F94-A641-757ACE6C9CC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4ecd955e-de54-4019-bb4b-f05ad869cd1d"/>
+    <ds:schemaRef ds:uri="190c8990-5a96-4215-abfd-93010a72b119"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>